--- a/Code/Results/Cases/Case_7_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_46/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01453325033605</v>
+        <v>1.038815293882783</v>
       </c>
       <c r="D2">
-        <v>1.030324230843225</v>
+        <v>1.051399920781182</v>
       </c>
       <c r="E2">
-        <v>1.023522329058868</v>
+        <v>1.04506894979187</v>
       </c>
       <c r="F2">
-        <v>1.027007664192591</v>
+        <v>1.049624304880558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051835461082054</v>
+        <v>1.065716075874204</v>
       </c>
       <c r="J2">
-        <v>1.036287796459623</v>
+        <v>1.059893940122187</v>
       </c>
       <c r="K2">
-        <v>1.041376667548583</v>
+        <v>1.062186771466139</v>
       </c>
       <c r="L2">
-        <v>1.034663405576933</v>
+        <v>1.055934177621872</v>
       </c>
       <c r="M2">
-        <v>1.038103137454237</v>
+        <v>1.060433018870733</v>
       </c>
       <c r="N2">
-        <v>1.037759443994467</v>
+        <v>1.061399111088695</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023580220746411</v>
+        <v>1.046162971541583</v>
       </c>
       <c r="D3">
-        <v>1.037395095799103</v>
+        <v>1.057274592222417</v>
       </c>
       <c r="E3">
-        <v>1.031733918903403</v>
+        <v>1.051777918225371</v>
       </c>
       <c r="F3">
-        <v>1.036009752466514</v>
+        <v>1.057034375287498</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055236550137325</v>
+        <v>1.068978512151349</v>
       </c>
       <c r="J3">
-        <v>1.043448073250408</v>
+        <v>1.065469679176563</v>
       </c>
       <c r="K3">
-        <v>1.047570853411178</v>
+        <v>1.067223554493238</v>
       </c>
       <c r="L3">
-        <v>1.041976241868152</v>
+        <v>1.061788532561204</v>
       </c>
       <c r="M3">
-        <v>1.04620171605769</v>
+        <v>1.066986015403373</v>
       </c>
       <c r="N3">
-        <v>1.04492988919959</v>
+        <v>1.066982768332074</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029222786108229</v>
+        <v>1.050772844752185</v>
       </c>
       <c r="D4">
-        <v>1.041806991495972</v>
+        <v>1.060962092644988</v>
       </c>
       <c r="E4">
-        <v>1.036857270084834</v>
+        <v>1.055987802713809</v>
       </c>
       <c r="F4">
-        <v>1.041630386725686</v>
+        <v>1.061688149734072</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057341873966854</v>
+        <v>1.071012563534858</v>
       </c>
       <c r="J4">
-        <v>1.047907399924325</v>
+        <v>1.068961280053049</v>
       </c>
       <c r="K4">
-        <v>1.051425726605903</v>
+        <v>1.070376486883041</v>
       </c>
       <c r="L4">
-        <v>1.046530315438223</v>
+        <v>1.065454389582115</v>
       </c>
       <c r="M4">
-        <v>1.051251048710227</v>
+        <v>1.071094975788318</v>
       </c>
       <c r="N4">
-        <v>1.049395548628876</v>
+        <v>1.070479327682297</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031547738304072</v>
+        <v>1.052678154533946</v>
       </c>
       <c r="D5">
-        <v>1.043625162042683</v>
+        <v>1.062486525221405</v>
       </c>
       <c r="E5">
-        <v>1.038968643399064</v>
+        <v>1.057727921038202</v>
       </c>
       <c r="F5">
-        <v>1.043947697772786</v>
+        <v>1.06361271302228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058205458745431</v>
+        <v>1.071850152576205</v>
       </c>
       <c r="J5">
-        <v>1.049743184748161</v>
+        <v>1.070402778269287</v>
       </c>
       <c r="K5">
-        <v>1.053011973141715</v>
+        <v>1.071677872262735</v>
       </c>
       <c r="L5">
-        <v>1.048405048393866</v>
+        <v>1.066967780793453</v>
       </c>
       <c r="M5">
-        <v>1.053331093774596</v>
+        <v>1.072792656206659</v>
       </c>
       <c r="N5">
-        <v>1.05123394047773</v>
+        <v>1.071922872991344</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031935434366033</v>
+        <v>1.052996201067851</v>
       </c>
       <c r="D6">
-        <v>1.043928364010676</v>
+        <v>1.062741011670021</v>
       </c>
       <c r="E6">
-        <v>1.039320743149538</v>
+        <v>1.058018398974556</v>
       </c>
       <c r="F6">
-        <v>1.044334200122277</v>
+        <v>1.06393403778465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058349234624566</v>
+        <v>1.071989784463698</v>
       </c>
       <c r="J6">
-        <v>1.050049212425578</v>
+        <v>1.070643306113754</v>
       </c>
       <c r="K6">
-        <v>1.053276360296732</v>
+        <v>1.071895003204293</v>
       </c>
       <c r="L6">
-        <v>1.048717565648082</v>
+        <v>1.067220301953124</v>
       </c>
       <c r="M6">
-        <v>1.053677921073281</v>
+        <v>1.073076007811986</v>
       </c>
       <c r="N6">
-        <v>1.05154040274955</v>
+        <v>1.072163742412939</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029254033356861</v>
+        <v>1.050798429578855</v>
       </c>
       <c r="D7">
-        <v>1.04183142660036</v>
+        <v>1.060982561703298</v>
       </c>
       <c r="E7">
-        <v>1.036885645524225</v>
+        <v>1.056011168874205</v>
       </c>
       <c r="F7">
-        <v>1.041661525821471</v>
+        <v>1.061713988752435</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057353496005939</v>
+        <v>1.071023823173158</v>
       </c>
       <c r="J7">
-        <v>1.047932079320131</v>
+        <v>1.068980643194408</v>
       </c>
       <c r="K7">
-        <v>1.051447054152294</v>
+        <v>1.070393969122424</v>
       </c>
       <c r="L7">
-        <v>1.046555518648885</v>
+        <v>1.06547471862271</v>
       </c>
       <c r="M7">
-        <v>1.051279006365525</v>
+        <v>1.071117774940547</v>
       </c>
       <c r="N7">
-        <v>1.049420263072255</v>
+        <v>1.070498718321537</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017636681949364</v>
+        <v>1.041329623401534</v>
       </c>
       <c r="D8">
-        <v>1.03274931434113</v>
+        <v>1.053409771497086</v>
       </c>
       <c r="E8">
-        <v>1.026338761491887</v>
+        <v>1.047364531885468</v>
       </c>
       <c r="F8">
-        <v>1.030094375746459</v>
+        <v>1.052158959357935</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053005487859862</v>
+        <v>1.066835133051498</v>
       </c>
       <c r="J8">
-        <v>1.038745364426577</v>
+        <v>1.061803285366358</v>
       </c>
       <c r="K8">
-        <v>1.043503221347926</v>
+        <v>1.063911795355115</v>
       </c>
       <c r="L8">
-        <v>1.037173395995426</v>
+        <v>1.057938979714131</v>
       </c>
       <c r="M8">
-        <v>1.040881564107153</v>
+        <v>1.062675883692035</v>
       </c>
       <c r="N8">
-        <v>1.040220501989822</v>
+        <v>1.063311167822117</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9953692699953233</v>
+        <v>1.023440930025868</v>
       </c>
       <c r="D9">
-        <v>1.01536361003346</v>
+        <v>1.039121569054801</v>
       </c>
       <c r="E9">
-        <v>1.006142307879328</v>
+        <v>1.03103754764856</v>
       </c>
       <c r="F9">
-        <v>1.007976435023147</v>
+        <v>1.034147807784908</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044543751920528</v>
+        <v>1.058819851845657</v>
       </c>
       <c r="J9">
-        <v>1.021086617731877</v>
+        <v>1.048192242784685</v>
       </c>
       <c r="K9">
-        <v>1.028212245928221</v>
+        <v>1.051610284054784</v>
       </c>
       <c r="L9">
-        <v>1.019136510328709</v>
+        <v>1.043646361776768</v>
       </c>
       <c r="M9">
-        <v>1.020941412272</v>
+        <v>1.04671013217869</v>
       </c>
       <c r="N9">
-        <v>1.022536677849329</v>
+        <v>1.04968079599877</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9790255007660561</v>
+        <v>1.01055388396128</v>
       </c>
       <c r="D10">
-        <v>1.002630280128075</v>
+        <v>1.02884728847647</v>
       </c>
       <c r="E10">
-        <v>0.9913388510738945</v>
+        <v>1.019285314174476</v>
       </c>
       <c r="F10">
-        <v>0.9917844859928171</v>
+        <v>1.021202971731184</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038250933158224</v>
+        <v>1.052979119547212</v>
       </c>
       <c r="J10">
-        <v>1.008096736274757</v>
+        <v>1.038354938840061</v>
       </c>
       <c r="K10">
-        <v>1.016952205898455</v>
+        <v>1.042714523700723</v>
       </c>
       <c r="L10">
-        <v>1.005866266137127</v>
+        <v>1.033314883056073</v>
       </c>
       <c r="M10">
-        <v>1.006303675494835</v>
+        <v>1.035199669680693</v>
       </c>
       <c r="N10">
-        <v>1.009528349270579</v>
+        <v>1.03982952195419</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9715114454794457</v>
+        <v>1.004705518046999</v>
       </c>
       <c r="D11">
-        <v>0.9967859225928063</v>
+        <v>1.024190778435606</v>
       </c>
       <c r="E11">
-        <v>0.9845397702548641</v>
+        <v>1.013955309138793</v>
       </c>
       <c r="F11">
-        <v>0.9843518034298506</v>
+        <v>1.015336356692822</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035339761909725</v>
+        <v>1.050313453493682</v>
       </c>
       <c r="J11">
-        <v>1.002119357381279</v>
+        <v>1.033883843763205</v>
       </c>
       <c r="K11">
-        <v>1.011768707315759</v>
+        <v>1.038670470138704</v>
       </c>
       <c r="L11">
-        <v>0.9997592544330993</v>
+        <v>1.028618761648641</v>
       </c>
       <c r="M11">
-        <v>0.9995749809692702</v>
+        <v>1.029974733560958</v>
       </c>
       <c r="N11">
-        <v>1.003542481813457</v>
+        <v>1.035352077409483</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.968646175191479</v>
+        <v>1.002488896943256</v>
       </c>
       <c r="D12">
-        <v>0.9945591482136465</v>
+        <v>1.022426968283786</v>
       </c>
       <c r="E12">
-        <v>0.9819483646022813</v>
+        <v>1.011935762394797</v>
       </c>
       <c r="F12">
-        <v>0.9815194608558762</v>
+        <v>1.013114090324445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034227109844067</v>
+        <v>1.049300938694764</v>
       </c>
       <c r="J12">
-        <v>0.9998394237457164</v>
+        <v>1.032188294426925</v>
       </c>
       <c r="K12">
-        <v>1.009791334020287</v>
+        <v>1.037136756965887</v>
       </c>
       <c r="L12">
-        <v>0.9974297742826689</v>
+        <v>1.026837809745478</v>
       </c>
       <c r="M12">
-        <v>0.9970094950923406</v>
+        <v>1.027994285182316</v>
       </c>
       <c r="N12">
-        <v>1.00125931041062</v>
+        <v>1.033654120198663</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9692642988281753</v>
+        <v>1.002966443369682</v>
       </c>
       <c r="D13">
-        <v>0.9950394421488955</v>
+        <v>1.022806910213957</v>
       </c>
       <c r="E13">
-        <v>0.9825073484224102</v>
+        <v>1.012370822144361</v>
       </c>
       <c r="F13">
-        <v>0.9821303925743776</v>
+        <v>1.013592794324195</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034467254563044</v>
+        <v>1.049519171151849</v>
       </c>
       <c r="J13">
-        <v>1.000331298492274</v>
+        <v>1.032553622537285</v>
       </c>
       <c r="K13">
-        <v>1.010217944038286</v>
+        <v>1.037467219828863</v>
       </c>
       <c r="L13">
-        <v>0.9979323429036199</v>
+        <v>1.027221542025968</v>
       </c>
       <c r="M13">
-        <v>0.9975629295747265</v>
+        <v>1.028420954750779</v>
       </c>
       <c r="N13">
-        <v>1.001751883675737</v>
+        <v>1.034019967116844</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9712761705391353</v>
+        <v>1.004523219711259</v>
       </c>
       <c r="D14">
-        <v>0.9966030376548496</v>
+        <v>1.024045697132968</v>
       </c>
       <c r="E14">
-        <v>0.9843269568896476</v>
+        <v>1.013789205554427</v>
       </c>
       <c r="F14">
-        <v>0.9841191928570627</v>
+        <v>1.015153567860473</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035248449929707</v>
+        <v>1.050230226574672</v>
       </c>
       <c r="J14">
-        <v>1.00193215772354</v>
+        <v>1.033744417635237</v>
       </c>
       <c r="K14">
-        <v>1.011606354684539</v>
+        <v>1.038544353945533</v>
       </c>
       <c r="L14">
-        <v>0.9995679887195779</v>
+        <v>1.028472314189949</v>
       </c>
       <c r="M14">
-        <v>0.9993643148575795</v>
+        <v>1.029811860326229</v>
       </c>
       <c r="N14">
-        <v>1.003355016310733</v>
+        <v>1.035212453280421</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9725056336937323</v>
+        <v>1.005476405250404</v>
       </c>
       <c r="D15">
-        <v>0.9975588044988953</v>
+        <v>1.024804330325825</v>
       </c>
       <c r="E15">
-        <v>0.9854390949666635</v>
+        <v>1.014657738717349</v>
       </c>
       <c r="F15">
-        <v>0.9853348109092593</v>
+        <v>1.016109370164625</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035725511095862</v>
+        <v>1.050665307845355</v>
       </c>
       <c r="J15">
-        <v>1.002910372015666</v>
+        <v>1.034473399250073</v>
       </c>
       <c r="K15">
-        <v>1.012454720950193</v>
+        <v>1.039203741073708</v>
       </c>
       <c r="L15">
-        <v>1.000567446103107</v>
+        <v>1.029238003691853</v>
       </c>
       <c r="M15">
-        <v>1.000465194572875</v>
+        <v>1.030663473338052</v>
       </c>
       <c r="N15">
-        <v>1.004334619779355</v>
+        <v>1.035942470132766</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9795142807713301</v>
+        <v>1.010936042334802</v>
       </c>
       <c r="D16">
-        <v>1.003010676311016</v>
+        <v>1.029151705298387</v>
       </c>
       <c r="E16">
-        <v>0.9917812793256361</v>
+        <v>1.019633678340996</v>
       </c>
       <c r="F16">
-        <v>0.9922682234150833</v>
+        <v>1.021586493387038</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038439942420927</v>
+        <v>1.053153001182736</v>
       </c>
       <c r="J16">
-        <v>1.008485461828369</v>
+        <v>1.038646967023246</v>
       </c>
       <c r="K16">
-        <v>1.017289265404453</v>
+        <v>1.042978643440237</v>
       </c>
       <c r="L16">
-        <v>1.006263408640693</v>
+        <v>1.033621599732704</v>
       </c>
       <c r="M16">
-        <v>1.006741402073319</v>
+        <v>1.035541069957438</v>
       </c>
       <c r="N16">
-        <v>1.009917626859065</v>
+        <v>1.040121964850892</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9837880409219172</v>
+        <v>1.014286278161779</v>
       </c>
       <c r="D17">
-        <v>1.006337887560036</v>
+        <v>1.031821119275171</v>
       </c>
       <c r="E17">
-        <v>0.9956505352843612</v>
+        <v>1.022688043161323</v>
       </c>
       <c r="F17">
-        <v>0.9964992032433704</v>
+        <v>1.024949587108299</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040090585426402</v>
+        <v>1.054675668286611</v>
       </c>
       <c r="J17">
-        <v>1.011883799234725</v>
+        <v>1.041206313571714</v>
       </c>
       <c r="K17">
-        <v>1.020235695787843</v>
+        <v>1.045293301496984</v>
       </c>
       <c r="L17">
-        <v>1.009735258592555</v>
+        <v>1.036309628822934</v>
       </c>
       <c r="M17">
-        <v>1.010568893804246</v>
+        <v>1.038533858273651</v>
       </c>
       <c r="N17">
-        <v>1.013320790294332</v>
+        <v>1.042684945965019</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9862393327796887</v>
+        <v>1.016214833723186</v>
       </c>
       <c r="D18">
-        <v>1.008247157146883</v>
+        <v>1.033358325954016</v>
       </c>
       <c r="E18">
-        <v>0.9978704358145603</v>
+        <v>1.024446589475048</v>
       </c>
       <c r="F18">
-        <v>0.9989270230100707</v>
+        <v>1.026886287322867</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041035651727743</v>
+        <v>1.055550772318486</v>
       </c>
       <c r="J18">
-        <v>1.01383247430291</v>
+        <v>1.042678956333351</v>
       </c>
       <c r="K18">
-        <v>1.021925036353462</v>
+        <v>1.046625065446248</v>
       </c>
       <c r="L18">
-        <v>1.011726029836679</v>
+        <v>1.037856275936492</v>
       </c>
       <c r="M18">
-        <v>1.012764303172876</v>
+        <v>1.040256523785652</v>
       </c>
       <c r="N18">
-        <v>1.01527223270463</v>
+        <v>1.044159680048292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9870683519796034</v>
+        <v>1.016868194851992</v>
       </c>
       <c r="D19">
-        <v>1.008893007807407</v>
+        <v>1.033879196304714</v>
       </c>
       <c r="E19">
-        <v>0.9986212987846691</v>
+        <v>1.025042403889971</v>
       </c>
       <c r="F19">
-        <v>0.9997482804844052</v>
+        <v>1.027542531749225</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041354979507997</v>
+        <v>1.055847000167742</v>
       </c>
       <c r="J19">
-        <v>1.014491420563778</v>
+        <v>1.043177751493721</v>
       </c>
       <c r="K19">
-        <v>1.022496252239877</v>
+        <v>1.047076128661439</v>
       </c>
       <c r="L19">
-        <v>1.012399201453969</v>
+        <v>1.038380130371022</v>
       </c>
       <c r="M19">
-        <v>1.01350679358215</v>
+        <v>1.040840109424501</v>
       </c>
       <c r="N19">
-        <v>1.015932114744771</v>
+        <v>1.044659183555003</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833338582846048</v>
+        <v>1.013929502535493</v>
       </c>
       <c r="D20">
-        <v>1.00598420232581</v>
+        <v>1.031536786445016</v>
       </c>
       <c r="E20">
-        <v>0.9952392744643956</v>
+        <v>1.0223627429104</v>
       </c>
       <c r="F20">
-        <v>0.9960494550331077</v>
+        <v>1.024591364477752</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0399153425842</v>
+        <v>1.054513662062863</v>
       </c>
       <c r="J20">
-        <v>1.011522701099756</v>
+        <v>1.04093382779085</v>
       </c>
       <c r="K20">
-        <v>1.019922636625712</v>
+        <v>1.045046875671424</v>
       </c>
       <c r="L20">
-        <v>1.009366355244636</v>
+        <v>1.036023446721736</v>
       </c>
       <c r="M20">
-        <v>1.010162127536278</v>
+        <v>1.038215160804763</v>
       </c>
       <c r="N20">
-        <v>1.012959179358593</v>
+        <v>1.042412073223092</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9706858499559377</v>
+        <v>1.004066044926393</v>
       </c>
       <c r="D21">
-        <v>0.9961441972759776</v>
+        <v>1.023681874567676</v>
       </c>
       <c r="E21">
-        <v>0.983793014397039</v>
+        <v>1.013372654727052</v>
       </c>
       <c r="F21">
-        <v>0.9835355884098629</v>
+        <v>1.014695183690251</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035019301526621</v>
+        <v>1.050021472027575</v>
       </c>
       <c r="J21">
-        <v>1.001462451715975</v>
+        <v>1.033394744679807</v>
       </c>
       <c r="K21">
-        <v>1.011198989090604</v>
+        <v>1.038228059912945</v>
       </c>
       <c r="L21">
-        <v>0.999088078852625</v>
+        <v>1.028105031039436</v>
       </c>
       <c r="M21">
-        <v>0.9988357450261981</v>
+        <v>1.029403398958145</v>
       </c>
       <c r="N21">
-        <v>1.002884643266761</v>
+        <v>1.034862283749286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9622986479653095</v>
+        <v>0.9976059238134174</v>
       </c>
       <c r="D22">
-        <v>0.9896298614096236</v>
+        <v>1.018543670312581</v>
       </c>
       <c r="E22">
-        <v>0.9762100774642649</v>
+        <v>1.007488169208209</v>
       </c>
       <c r="F22">
-        <v>0.975248597739604</v>
+        <v>1.008221117589476</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031757665853724</v>
+        <v>1.04706653293879</v>
       </c>
       <c r="J22">
-        <v>0.9947876494558953</v>
+        <v>1.028451556009773</v>
       </c>
       <c r="K22">
-        <v>1.00540959048918</v>
+        <v>1.033756511928294</v>
       </c>
       <c r="L22">
-        <v>0.9922680222849208</v>
+        <v>1.022912729375232</v>
       </c>
       <c r="M22">
-        <v>0.9913268649068444</v>
+        <v>1.023631453047152</v>
       </c>
       <c r="N22">
-        <v>0.9962003620218609</v>
+        <v>1.029912075184349</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.966789388140043</v>
+        <v>1.001056546669371</v>
       </c>
       <c r="D23">
-        <v>0.9931166822670545</v>
+        <v>1.021287543722494</v>
       </c>
       <c r="E23">
-        <v>0.9802694263961992</v>
+        <v>1.010630944116585</v>
       </c>
       <c r="F23">
-        <v>0.9796845699543683</v>
+        <v>1.011678460551377</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033505374655611</v>
+        <v>1.048646059051038</v>
       </c>
       <c r="J23">
-        <v>0.9983617983974272</v>
+        <v>1.031092400785436</v>
       </c>
       <c r="K23">
-        <v>1.008509738223552</v>
+        <v>1.036145436635928</v>
       </c>
       <c r="L23">
-        <v>0.9959200084508886</v>
+        <v>1.025686698080217</v>
       </c>
       <c r="M23">
-        <v>0.9953470875391082</v>
+        <v>1.026714524037881</v>
       </c>
       <c r="N23">
-        <v>0.9997795866648502</v>
+        <v>1.032556670262502</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9835392115526647</v>
+        <v>1.014090792839501</v>
       </c>
       <c r="D24">
-        <v>1.006144114150858</v>
+        <v>1.031665325233362</v>
       </c>
       <c r="E24">
-        <v>0.9954252192311037</v>
+        <v>1.022509802948844</v>
       </c>
       <c r="F24">
-        <v>0.99625280002355</v>
+        <v>1.024753306636513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039994581816369</v>
+        <v>1.05458690586847</v>
       </c>
       <c r="J24">
-        <v>1.011685968893899</v>
+        <v>1.04105701452763</v>
       </c>
       <c r="K24">
-        <v>1.020064184594679</v>
+        <v>1.045158281360868</v>
       </c>
       <c r="L24">
-        <v>1.009533152284845</v>
+        <v>1.036152825481532</v>
       </c>
       <c r="M24">
-        <v>1.010346041811277</v>
+        <v>1.038359237220786</v>
       </c>
       <c r="N24">
-        <v>1.013122679011731</v>
+        <v>1.042535434899168</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001366044636679</v>
+        <v>1.028222771368669</v>
       </c>
       <c r="D25">
-        <v>1.020042034206311</v>
+        <v>1.042938223352909</v>
       </c>
       <c r="E25">
-        <v>1.01157850728717</v>
+        <v>1.035400577664735</v>
       </c>
       <c r="F25">
-        <v>1.013926312331911</v>
+        <v>1.038957436275574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046836784344813</v>
+        <v>1.060973941926264</v>
       </c>
       <c r="J25">
-        <v>1.02584752322505</v>
+        <v>1.051836277370979</v>
       </c>
       <c r="K25">
-        <v>1.032336990913399</v>
+        <v>1.054904637396274</v>
       </c>
       <c r="L25">
-        <v>1.023999702001224</v>
+        <v>1.047473121765446</v>
       </c>
       <c r="M25">
-        <v>1.026312219500204</v>
+        <v>1.050979657348955</v>
       </c>
       <c r="N25">
-        <v>1.027304344374385</v>
+        <v>1.053330005532153</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038815293882783</v>
+        <v>1.019854586654648</v>
       </c>
       <c r="D2">
-        <v>1.051399920781182</v>
+        <v>1.033365067211462</v>
       </c>
       <c r="E2">
-        <v>1.04506894979187</v>
+        <v>1.031173453539423</v>
       </c>
       <c r="F2">
-        <v>1.049624304880558</v>
+        <v>1.036846944832252</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065716075874204</v>
+        <v>1.054142261044594</v>
       </c>
       <c r="J2">
-        <v>1.059893940122187</v>
+        <v>1.041457244442769</v>
       </c>
       <c r="K2">
-        <v>1.062186771466139</v>
+        <v>1.044378348808322</v>
       </c>
       <c r="L2">
-        <v>1.055934177621872</v>
+        <v>1.04221492621943</v>
       </c>
       <c r="M2">
-        <v>1.060433018870733</v>
+        <v>1.047815744583541</v>
       </c>
       <c r="N2">
-        <v>1.061399111088695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017284250498373</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046415321108124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046162971541583</v>
+        <v>1.024144616451544</v>
       </c>
       <c r="D3">
-        <v>1.057274592222417</v>
+        <v>1.036477142476665</v>
       </c>
       <c r="E3">
-        <v>1.051777918225371</v>
+        <v>1.034587539185793</v>
       </c>
       <c r="F3">
-        <v>1.057034375287498</v>
+        <v>1.040129359288071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068978512151349</v>
+        <v>1.055569890304866</v>
       </c>
       <c r="J3">
-        <v>1.065469679176563</v>
+        <v>1.043998036817786</v>
       </c>
       <c r="K3">
-        <v>1.067223554493238</v>
+        <v>1.046663632469964</v>
       </c>
       <c r="L3">
-        <v>1.061788532561204</v>
+        <v>1.044796195950486</v>
       </c>
       <c r="M3">
-        <v>1.066986015403373</v>
+        <v>1.050273287623927</v>
       </c>
       <c r="N3">
-        <v>1.066982768332074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018165572303834</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048360283297632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050772844752185</v>
+        <v>1.026864354475275</v>
       </c>
       <c r="D4">
-        <v>1.060962092644988</v>
+        <v>1.038451823065421</v>
       </c>
       <c r="E4">
-        <v>1.055987802713809</v>
+        <v>1.0367578760491</v>
       </c>
       <c r="F4">
-        <v>1.061688149734072</v>
+        <v>1.042219238799263</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071012563534858</v>
+        <v>1.056464080923615</v>
       </c>
       <c r="J4">
-        <v>1.068961280053049</v>
+        <v>1.04560496663705</v>
       </c>
       <c r="K4">
-        <v>1.070376486883041</v>
+        <v>1.048107302924202</v>
       </c>
       <c r="L4">
-        <v>1.065454389582115</v>
+        <v>1.046432018519687</v>
       </c>
       <c r="M4">
-        <v>1.071094975788318</v>
+        <v>1.051833479138115</v>
       </c>
       <c r="N4">
-        <v>1.070479327682297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018722540722029</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049595055972201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052678154533946</v>
+        <v>1.02799471190502</v>
       </c>
       <c r="D5">
-        <v>1.062486525221405</v>
+        <v>1.039272892455358</v>
       </c>
       <c r="E5">
-        <v>1.057727921038202</v>
+        <v>1.037661276219837</v>
       </c>
       <c r="F5">
-        <v>1.06361271302228</v>
+        <v>1.043089922918843</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071850152576205</v>
+        <v>1.056833065886697</v>
       </c>
       <c r="J5">
-        <v>1.070402778269287</v>
+        <v>1.046271868354942</v>
       </c>
       <c r="K5">
-        <v>1.071677872262735</v>
+        <v>1.048706040448446</v>
       </c>
       <c r="L5">
-        <v>1.066967780793453</v>
+        <v>1.047111703281583</v>
       </c>
       <c r="M5">
-        <v>1.072792656206659</v>
+        <v>1.052482406979802</v>
       </c>
       <c r="N5">
-        <v>1.071922872991344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018953583923752</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050108632298133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052996201067851</v>
+        <v>1.028183752593684</v>
       </c>
       <c r="D6">
-        <v>1.062741011670021</v>
+        <v>1.039410228133661</v>
       </c>
       <c r="E6">
-        <v>1.058018398974556</v>
+        <v>1.037812440691678</v>
       </c>
       <c r="F6">
-        <v>1.06393403778465</v>
+        <v>1.043235658444874</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071989784463698</v>
+        <v>1.056894617743149</v>
       </c>
       <c r="J6">
-        <v>1.070643306113754</v>
+        <v>1.046383343472576</v>
       </c>
       <c r="K6">
-        <v>1.071895003204293</v>
+        <v>1.048806097328496</v>
       </c>
       <c r="L6">
-        <v>1.067220301953124</v>
+        <v>1.047225361773374</v>
       </c>
       <c r="M6">
-        <v>1.073076007811986</v>
+        <v>1.052590961528471</v>
       </c>
       <c r="N6">
-        <v>1.072163742412939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018992197169085</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050194544814572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050798429578855</v>
+        <v>1.026879508968082</v>
       </c>
       <c r="D7">
-        <v>1.060982561703298</v>
+        <v>1.03846282960126</v>
       </c>
       <c r="E7">
-        <v>1.056011168874205</v>
+        <v>1.036769982364128</v>
       </c>
       <c r="F7">
-        <v>1.061713988752435</v>
+        <v>1.042230903641255</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071023823173158</v>
+        <v>1.056469038367047</v>
       </c>
       <c r="J7">
-        <v>1.068980643194408</v>
+        <v>1.045613911497269</v>
       </c>
       <c r="K7">
-        <v>1.070393969122424</v>
+        <v>1.048115335157683</v>
       </c>
       <c r="L7">
-        <v>1.06547471862271</v>
+        <v>1.046441131699372</v>
       </c>
       <c r="M7">
-        <v>1.071117774940547</v>
+        <v>1.051842177290293</v>
       </c>
       <c r="N7">
-        <v>1.070498718321537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018725640035958</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049601939890981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041329623401534</v>
+        <v>1.021316326094196</v>
       </c>
       <c r="D8">
-        <v>1.053409771497086</v>
+        <v>1.034425051468823</v>
       </c>
       <c r="E8">
-        <v>1.047364531885468</v>
+        <v>1.03233546746934</v>
       </c>
       <c r="F8">
-        <v>1.052158959357935</v>
+        <v>1.037963461008508</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066835133051498</v>
+        <v>1.05463095197982</v>
       </c>
       <c r="J8">
-        <v>1.061803285366358</v>
+        <v>1.042323752614831</v>
       </c>
       <c r="K8">
-        <v>1.063911795355115</v>
+        <v>1.045158061609645</v>
       </c>
       <c r="L8">
-        <v>1.057938979714131</v>
+        <v>1.04309454827238</v>
       </c>
       <c r="M8">
-        <v>1.062675883692035</v>
+        <v>1.048652622196926</v>
       </c>
       <c r="N8">
-        <v>1.063311167822117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017584901182439</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047077647953072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023440930025868</v>
+        <v>1.011062326878122</v>
       </c>
       <c r="D9">
-        <v>1.039121569054801</v>
+        <v>1.026998676211519</v>
       </c>
       <c r="E9">
-        <v>1.03103754764856</v>
+        <v>1.024210837347888</v>
       </c>
       <c r="F9">
-        <v>1.034147807784908</v>
+        <v>1.030170857488954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058819851845657</v>
+        <v>1.051158384449584</v>
       </c>
       <c r="J9">
-        <v>1.048192242784685</v>
+        <v>1.036230403807128</v>
       </c>
       <c r="K9">
-        <v>1.051610284054784</v>
+        <v>1.039668395665371</v>
       </c>
       <c r="L9">
-        <v>1.043646361776768</v>
+        <v>1.036922954126835</v>
       </c>
       <c r="M9">
-        <v>1.04671013217869</v>
+        <v>1.0427926898874</v>
       </c>
       <c r="N9">
-        <v>1.04968079599877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01546912008932</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042439931597002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01055388396128</v>
+        <v>1.003992873642645</v>
       </c>
       <c r="D10">
-        <v>1.02884728847647</v>
+        <v>1.02190348012519</v>
       </c>
       <c r="E10">
-        <v>1.019285314174476</v>
+        <v>1.018689473696333</v>
       </c>
       <c r="F10">
-        <v>1.021202971731184</v>
+        <v>1.024941436869339</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052979119547212</v>
+        <v>1.048731987779974</v>
       </c>
       <c r="J10">
-        <v>1.038354938840061</v>
+        <v>1.032048962936038</v>
       </c>
       <c r="K10">
-        <v>1.042714523700723</v>
+        <v>1.035888210266065</v>
       </c>
       <c r="L10">
-        <v>1.033314883056073</v>
+        <v>1.032729288574912</v>
       </c>
       <c r="M10">
-        <v>1.035199669680693</v>
+        <v>1.0388745094809</v>
       </c>
       <c r="N10">
-        <v>1.03982952195419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014028484569212</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039390337700765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004705518046999</v>
+        <v>1.001661503689271</v>
       </c>
       <c r="D11">
-        <v>1.024190778435606</v>
+        <v>1.020315977598644</v>
       </c>
       <c r="E11">
-        <v>1.013955309138793</v>
+        <v>1.017238004978467</v>
       </c>
       <c r="F11">
-        <v>1.015336356692822</v>
+        <v>1.02396045853657</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050313453493682</v>
+        <v>1.048096035260824</v>
       </c>
       <c r="J11">
-        <v>1.033883843763205</v>
+        <v>1.030965325146696</v>
       </c>
       <c r="K11">
-        <v>1.038670470138704</v>
+        <v>1.034864671664803</v>
       </c>
       <c r="L11">
-        <v>1.028618761648641</v>
+        <v>1.031841998515094</v>
       </c>
       <c r="M11">
-        <v>1.029974733560958</v>
+        <v>1.038444232831768</v>
       </c>
       <c r="N11">
-        <v>1.035352077409483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013766631191301</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039485524300332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002488896943256</v>
+        <v>1.001097007895097</v>
       </c>
       <c r="D12">
-        <v>1.022426968283786</v>
+        <v>1.019978528209182</v>
       </c>
       <c r="E12">
-        <v>1.011935762394797</v>
+        <v>1.017069104746119</v>
       </c>
       <c r="F12">
-        <v>1.013114090324445</v>
+        <v>1.024084870887602</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049300938694764</v>
+        <v>1.048029341199889</v>
       </c>
       <c r="J12">
-        <v>1.032188294426925</v>
+        <v>1.030855012831415</v>
       </c>
       <c r="K12">
-        <v>1.037136756965887</v>
+        <v>1.034732725888937</v>
       </c>
       <c r="L12">
-        <v>1.026837809745478</v>
+        <v>1.031876434626025</v>
       </c>
       <c r="M12">
-        <v>1.027994285182316</v>
+        <v>1.038764745786623</v>
       </c>
       <c r="N12">
-        <v>1.033654120198663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013818490279653</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040065000484493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002966443369682</v>
+        <v>1.001856268464945</v>
       </c>
       <c r="D13">
-        <v>1.022806910213957</v>
+        <v>1.020580876244125</v>
       </c>
       <c r="E13">
-        <v>1.012370822144361</v>
+        <v>1.017877803491629</v>
       </c>
       <c r="F13">
-        <v>1.013592794324195</v>
+        <v>1.025081007717272</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049519171151849</v>
+        <v>1.048401296270037</v>
       </c>
       <c r="J13">
-        <v>1.032553622537285</v>
+        <v>1.031489940430879</v>
       </c>
       <c r="K13">
-        <v>1.037467219828863</v>
+        <v>1.035281375766896</v>
       </c>
       <c r="L13">
-        <v>1.027221542025968</v>
+        <v>1.032627413202061</v>
       </c>
       <c r="M13">
-        <v>1.028420954750779</v>
+        <v>1.039700493759906</v>
       </c>
       <c r="N13">
-        <v>1.034019967116844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014115912047814</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041081133230307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004523219711259</v>
+        <v>1.002980966006022</v>
       </c>
       <c r="D14">
-        <v>1.024045697132968</v>
+        <v>1.021422976347418</v>
       </c>
       <c r="E14">
-        <v>1.013789205554427</v>
+        <v>1.018879125804675</v>
       </c>
       <c r="F14">
-        <v>1.015153567860473</v>
+        <v>1.026166120388305</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050230226574672</v>
+        <v>1.048856549735266</v>
       </c>
       <c r="J14">
-        <v>1.033744417635237</v>
+        <v>1.032265734619737</v>
       </c>
       <c r="K14">
-        <v>1.038544353945533</v>
+        <v>1.035968342193826</v>
       </c>
       <c r="L14">
-        <v>1.028472314189949</v>
+        <v>1.033470094589614</v>
       </c>
       <c r="M14">
-        <v>1.029811860326229</v>
+        <v>1.040627240120964</v>
       </c>
       <c r="N14">
-        <v>1.035212453280421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014432441231714</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04198675371883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005476405250404</v>
+        <v>1.003548175781823</v>
       </c>
       <c r="D15">
-        <v>1.024804330325825</v>
+        <v>1.021837599343078</v>
       </c>
       <c r="E15">
-        <v>1.014657738717349</v>
+        <v>1.019345742098666</v>
       </c>
       <c r="F15">
-        <v>1.016109370164625</v>
+        <v>1.026637825679961</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050665307845355</v>
+        <v>1.049066684868769</v>
       </c>
       <c r="J15">
-        <v>1.034473399250073</v>
+        <v>1.032623887523219</v>
       </c>
       <c r="K15">
-        <v>1.039203741073708</v>
+        <v>1.036289407472296</v>
       </c>
       <c r="L15">
-        <v>1.029238003691853</v>
+        <v>1.033841866528235</v>
       </c>
       <c r="M15">
-        <v>1.030663473338052</v>
+        <v>1.041005050023379</v>
       </c>
       <c r="N15">
-        <v>1.035942470132766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014565952926491</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042322850868464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010936042334802</v>
+        <v>1.006392031443595</v>
       </c>
       <c r="D16">
-        <v>1.029151705298387</v>
+        <v>1.023874399320615</v>
       </c>
       <c r="E16">
-        <v>1.019633678340996</v>
+        <v>1.021527341739646</v>
       </c>
       <c r="F16">
-        <v>1.021586493387038</v>
+        <v>1.028689518624057</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053153001182736</v>
+        <v>1.050034770664515</v>
       </c>
       <c r="J16">
-        <v>1.038646967023246</v>
+        <v>1.034278336223792</v>
       </c>
       <c r="K16">
-        <v>1.042978643440237</v>
+        <v>1.037790118129338</v>
       </c>
       <c r="L16">
-        <v>1.033621599732704</v>
+        <v>1.03548292592169</v>
       </c>
       <c r="M16">
-        <v>1.035541069957438</v>
+        <v>1.042524185275094</v>
       </c>
       <c r="N16">
-        <v>1.040121964850892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015119824751161</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043484932393227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014286278161779</v>
+        <v>1.007986106787809</v>
       </c>
       <c r="D17">
-        <v>1.031821119275171</v>
+        <v>1.024997612016121</v>
       </c>
       <c r="E17">
-        <v>1.022688043161323</v>
+        <v>1.022678174610285</v>
       </c>
       <c r="F17">
-        <v>1.024949587108299</v>
+        <v>1.029691089867153</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054675668286611</v>
+        <v>1.050536803774792</v>
       </c>
       <c r="J17">
-        <v>1.041206313571714</v>
+        <v>1.0351408125632</v>
       </c>
       <c r="K17">
-        <v>1.045293301496984</v>
+        <v>1.038581093087837</v>
       </c>
       <c r="L17">
-        <v>1.036309628822934</v>
+        <v>1.036299923564193</v>
       </c>
       <c r="M17">
-        <v>1.038533858273651</v>
+        <v>1.043197811769708</v>
       </c>
       <c r="N17">
-        <v>1.042684945965019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015378732599891</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043888635446702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016214833723186</v>
+        <v>1.008637587559496</v>
       </c>
       <c r="D18">
-        <v>1.033358325954016</v>
+        <v>1.025422380849006</v>
       </c>
       <c r="E18">
-        <v>1.024446589475048</v>
+        <v>1.023013686357325</v>
       </c>
       <c r="F18">
-        <v>1.026886287322867</v>
+        <v>1.029822384830124</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055550772318486</v>
+        <v>1.050673436919535</v>
       </c>
       <c r="J18">
-        <v>1.042678956333351</v>
+        <v>1.035378202414307</v>
       </c>
       <c r="K18">
-        <v>1.046625065446248</v>
+        <v>1.038816259811642</v>
       </c>
       <c r="L18">
-        <v>1.037856275936492</v>
+        <v>1.036446655590183</v>
       </c>
       <c r="M18">
-        <v>1.040256523785652</v>
+        <v>1.043145462274019</v>
       </c>
       <c r="N18">
-        <v>1.044159680048292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01539643457819</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043610153164008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016868194851992</v>
+        <v>1.008428522412437</v>
       </c>
       <c r="D19">
-        <v>1.033879196304714</v>
+        <v>1.025208791517529</v>
       </c>
       <c r="E19">
-        <v>1.025042403889971</v>
+        <v>1.022599312692393</v>
       </c>
       <c r="F19">
-        <v>1.027542531749225</v>
+        <v>1.029149287827235</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055847000167742</v>
+        <v>1.050477461601289</v>
       </c>
       <c r="J19">
-        <v>1.043177751493721</v>
+        <v>1.035044059774117</v>
       </c>
       <c r="K19">
-        <v>1.047076128661439</v>
+        <v>1.038543838225482</v>
       </c>
       <c r="L19">
-        <v>1.038380130371022</v>
+        <v>1.035976515560519</v>
       </c>
       <c r="M19">
-        <v>1.040840109424501</v>
+        <v>1.042421195056268</v>
       </c>
       <c r="N19">
-        <v>1.044659183555003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015197262061291</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04271280580103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013929502535493</v>
+        <v>1.005830833542209</v>
       </c>
       <c r="D20">
-        <v>1.031536786445016</v>
+        <v>1.023227431578789</v>
       </c>
       <c r="E20">
-        <v>1.0223627429104</v>
+        <v>1.020124215489054</v>
       </c>
       <c r="F20">
-        <v>1.024591364477752</v>
+        <v>1.026301618621618</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054513662062863</v>
+        <v>1.049367582854561</v>
       </c>
       <c r="J20">
-        <v>1.04093382779085</v>
+        <v>1.033138822066954</v>
       </c>
       <c r="K20">
-        <v>1.045046875671424</v>
+        <v>1.036873790986989</v>
       </c>
       <c r="L20">
-        <v>1.036023446721736</v>
+        <v>1.033822199998521</v>
       </c>
       <c r="M20">
-        <v>1.038215160804763</v>
+        <v>1.039897231793668</v>
       </c>
       <c r="N20">
-        <v>1.042412073223092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014404620809149</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040189176380217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004066044926393</v>
+        <v>1.000355158915033</v>
       </c>
       <c r="D21">
-        <v>1.023681874567676</v>
+        <v>1.019270048765117</v>
       </c>
       <c r="E21">
-        <v>1.013372654727052</v>
+        <v>1.015791630575331</v>
       </c>
       <c r="F21">
-        <v>1.014695183690251</v>
+        <v>1.022127401416233</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050021472027575</v>
+        <v>1.047436776308564</v>
       </c>
       <c r="J21">
-        <v>1.033394744679807</v>
+        <v>1.029838038581887</v>
       </c>
       <c r="K21">
-        <v>1.038228059912945</v>
+        <v>1.03389531519764</v>
       </c>
       <c r="L21">
-        <v>1.028105031039436</v>
+        <v>1.030479877117565</v>
       </c>
       <c r="M21">
-        <v>1.029403398958145</v>
+        <v>1.036701349216378</v>
       </c>
       <c r="N21">
-        <v>1.034862283749286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013246493472688</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037619040695174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9976059238134174</v>
+        <v>0.9968821784353336</v>
       </c>
       <c r="D22">
-        <v>1.018543670312581</v>
+        <v>1.016769566168737</v>
       </c>
       <c r="E22">
-        <v>1.007488169208209</v>
+        <v>1.013074437807524</v>
       </c>
       <c r="F22">
-        <v>1.008221117589476</v>
+        <v>1.019537765587449</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04706653293879</v>
+        <v>1.046212240676082</v>
       </c>
       <c r="J22">
-        <v>1.028451556009773</v>
+        <v>1.027759828306992</v>
       </c>
       <c r="K22">
-        <v>1.033756511928294</v>
+        <v>1.032015977328157</v>
       </c>
       <c r="L22">
-        <v>1.022912729375232</v>
+        <v>1.028391262131547</v>
       </c>
       <c r="M22">
-        <v>1.023631453047152</v>
+        <v>1.034731863681486</v>
       </c>
       <c r="N22">
-        <v>1.029912075184349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012523456222272</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036060316975164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001056546669371</v>
+        <v>0.998731038588406</v>
       </c>
       <c r="D23">
-        <v>1.021287543722494</v>
+        <v>1.018100303393452</v>
       </c>
       <c r="E23">
-        <v>1.010630944116585</v>
+        <v>1.014520128477786</v>
       </c>
       <c r="F23">
-        <v>1.011678460551377</v>
+        <v>1.020915222702546</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048646059051038</v>
+        <v>1.046865093796409</v>
       </c>
       <c r="J23">
-        <v>1.031092400785436</v>
+        <v>1.028866419323376</v>
       </c>
       <c r="K23">
-        <v>1.036145436635928</v>
+        <v>1.033016807900554</v>
       </c>
       <c r="L23">
-        <v>1.025686698080217</v>
+        <v>1.02950304346788</v>
       </c>
       <c r="M23">
-        <v>1.026714524037881</v>
+        <v>1.035779937808451</v>
       </c>
       <c r="N23">
-        <v>1.032556670262502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012908475292317</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036889802041468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014090792839501</v>
+        <v>1.005841700306493</v>
       </c>
       <c r="D24">
-        <v>1.031665325233362</v>
+        <v>1.023226762326409</v>
       </c>
       <c r="E24">
-        <v>1.022509802948844</v>
+        <v>1.020097747387928</v>
       </c>
       <c r="F24">
-        <v>1.024753306636513</v>
+        <v>1.026237541435435</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05458690586847</v>
+        <v>1.049354601273645</v>
       </c>
       <c r="J24">
-        <v>1.04105701452763</v>
+        <v>1.033116718473429</v>
       </c>
       <c r="K24">
-        <v>1.045158281360868</v>
+        <v>1.036857908575163</v>
       </c>
       <c r="L24">
-        <v>1.036152825481532</v>
+        <v>1.033780883012236</v>
       </c>
       <c r="M24">
-        <v>1.038359237220786</v>
+        <v>1.03981904773129</v>
       </c>
       <c r="N24">
-        <v>1.042535434899168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014386790522795</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040086495693089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028222771368669</v>
+        <v>1.013769694290825</v>
       </c>
       <c r="D25">
-        <v>1.042938223352909</v>
+        <v>1.028957267500773</v>
       </c>
       <c r="E25">
-        <v>1.035400577664735</v>
+        <v>1.02634998332337</v>
       </c>
       <c r="F25">
-        <v>1.038957436275574</v>
+        <v>1.032219515914103</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060973941926264</v>
+        <v>1.052084852343727</v>
       </c>
       <c r="J25">
-        <v>1.051836277370979</v>
+        <v>1.03784237616648</v>
       </c>
       <c r="K25">
-        <v>1.054904637396274</v>
+        <v>1.04112209509328</v>
       </c>
       <c r="L25">
-        <v>1.047473121765446</v>
+        <v>1.038552570932603</v>
       </c>
       <c r="M25">
-        <v>1.050979657348955</v>
+        <v>1.04433743808597</v>
       </c>
       <c r="N25">
-        <v>1.053330005532153</v>
+        <v>1.016029171666465</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043662491917066</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019854586654648</v>
+        <v>1.018473405193663</v>
       </c>
       <c r="D2">
-        <v>1.033365067211462</v>
+        <v>1.031320852255351</v>
       </c>
       <c r="E2">
-        <v>1.031173453539423</v>
+        <v>1.030097777430554</v>
       </c>
       <c r="F2">
-        <v>1.036846944832252</v>
+        <v>1.035970442027249</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054142261044594</v>
+        <v>1.05302041041642</v>
       </c>
       <c r="J2">
-        <v>1.041457244442769</v>
+        <v>1.040115277781314</v>
       </c>
       <c r="K2">
-        <v>1.044378348808322</v>
+        <v>1.042360424220974</v>
       </c>
       <c r="L2">
-        <v>1.04221492621943</v>
+        <v>1.041153141618955</v>
       </c>
       <c r="M2">
-        <v>1.047815744583541</v>
+        <v>1.046950404137921</v>
       </c>
       <c r="N2">
-        <v>1.017284250498373</v>
+        <v>1.017559037755469</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046415321108124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04573046740644</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023217203955876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024144616451544</v>
+        <v>1.022482997032221</v>
       </c>
       <c r="D3">
-        <v>1.036477142476665</v>
+        <v>1.034087044436603</v>
       </c>
       <c r="E3">
-        <v>1.034587539185793</v>
+        <v>1.033279564262944</v>
       </c>
       <c r="F3">
-        <v>1.040129359288071</v>
+        <v>1.039067428355203</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055569890304866</v>
+        <v>1.054245146526277</v>
       </c>
       <c r="J3">
-        <v>1.043998036817786</v>
+        <v>1.042378968277144</v>
       </c>
       <c r="K3">
-        <v>1.046663632469964</v>
+        <v>1.044301589261055</v>
       </c>
       <c r="L3">
-        <v>1.044796195950486</v>
+        <v>1.043503623560514</v>
       </c>
       <c r="M3">
-        <v>1.050273287623927</v>
+        <v>1.049223693919936</v>
       </c>
       <c r="N3">
-        <v>1.018165572303834</v>
+        <v>1.018178040350163</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048360283297632</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04752960871885</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023639861512717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026864354475275</v>
+        <v>1.025027100291563</v>
       </c>
       <c r="D4">
-        <v>1.038451823065421</v>
+        <v>1.035844003290731</v>
       </c>
       <c r="E4">
-        <v>1.0367578760491</v>
+        <v>1.035304351113379</v>
       </c>
       <c r="F4">
-        <v>1.042219238799263</v>
+        <v>1.041041202493822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056464080923615</v>
+        <v>1.055011463059513</v>
       </c>
       <c r="J4">
-        <v>1.04560496663705</v>
+        <v>1.04381157572068</v>
       </c>
       <c r="K4">
-        <v>1.048107302924202</v>
+        <v>1.045528245273362</v>
       </c>
       <c r="L4">
-        <v>1.046432018519687</v>
+        <v>1.044994567266946</v>
       </c>
       <c r="M4">
-        <v>1.051833479138115</v>
+        <v>1.050668298672669</v>
       </c>
       <c r="N4">
-        <v>1.018722540722029</v>
+        <v>1.018569636584943</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049595055972201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.048672904631211</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023904277866537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02799471190502</v>
+        <v>1.026084945118704</v>
       </c>
       <c r="D5">
-        <v>1.039272892455358</v>
+        <v>1.036574938008344</v>
       </c>
       <c r="E5">
-        <v>1.037661276219837</v>
+        <v>1.036147650347076</v>
       </c>
       <c r="F5">
-        <v>1.043089922918843</v>
+        <v>1.041863960670274</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056833065886697</v>
+        <v>1.055327471453527</v>
       </c>
       <c r="J5">
-        <v>1.046271868354942</v>
+        <v>1.044406333872372</v>
       </c>
       <c r="K5">
-        <v>1.048706040448446</v>
+        <v>1.046037049485413</v>
       </c>
       <c r="L5">
-        <v>1.047111703281583</v>
+        <v>1.04561436586623</v>
       </c>
       <c r="M5">
-        <v>1.052482406979802</v>
+        <v>1.051269465504033</v>
       </c>
       <c r="N5">
-        <v>1.018953583923752</v>
+        <v>1.018732172517249</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050108632298133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049148682403411</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024013307279489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028183752593684</v>
+        <v>1.026261886299081</v>
       </c>
       <c r="D6">
-        <v>1.039410228133661</v>
+        <v>1.036697219777422</v>
       </c>
       <c r="E6">
-        <v>1.037812440691678</v>
+        <v>1.03628878596998</v>
       </c>
       <c r="F6">
-        <v>1.043235658444874</v>
+        <v>1.042001699873101</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056894617743149</v>
+        <v>1.055380173168385</v>
       </c>
       <c r="J6">
-        <v>1.046383343472576</v>
+        <v>1.04450576128219</v>
       </c>
       <c r="K6">
-        <v>1.048806097328496</v>
+        <v>1.04612208086147</v>
       </c>
       <c r="L6">
-        <v>1.047225361773374</v>
+        <v>1.045718027787477</v>
       </c>
       <c r="M6">
-        <v>1.052590961528471</v>
+        <v>1.051370048441573</v>
       </c>
       <c r="N6">
-        <v>1.018992197169085</v>
+        <v>1.018759341778173</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050194544814572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049228286110022</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02403148996487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026879508968082</v>
+        <v>1.025051062640534</v>
       </c>
       <c r="D7">
-        <v>1.03846282960126</v>
+        <v>1.035861669037518</v>
       </c>
       <c r="E7">
-        <v>1.036769982364128</v>
+        <v>1.035324165556506</v>
       </c>
       <c r="F7">
-        <v>1.042230903641255</v>
+        <v>1.041058932662304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056469038367047</v>
+        <v>1.055021168325884</v>
       </c>
       <c r="J7">
-        <v>1.045613911497269</v>
+        <v>1.043829100059485</v>
       </c>
       <c r="K7">
-        <v>1.048115335157683</v>
+        <v>1.045542852749865</v>
       </c>
       <c r="L7">
-        <v>1.046441131699372</v>
+        <v>1.045011297407048</v>
       </c>
       <c r="M7">
-        <v>1.051842177290293</v>
+        <v>1.050682991266496</v>
       </c>
       <c r="N7">
-        <v>1.018725640035958</v>
+        <v>1.018600984921314</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049601939890981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048684532704115</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023908450813865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021316326094196</v>
+        <v>1.019869262005469</v>
       </c>
       <c r="D8">
-        <v>1.034425051468823</v>
+        <v>1.032286954863209</v>
       </c>
       <c r="E8">
-        <v>1.03233546746934</v>
+        <v>1.031206621322288</v>
       </c>
       <c r="F8">
-        <v>1.037963461008508</v>
+        <v>1.037044203938482</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05463095197982</v>
+        <v>1.053456614168818</v>
       </c>
       <c r="J8">
-        <v>1.042323752614831</v>
+        <v>1.04091638983541</v>
       </c>
       <c r="K8">
-        <v>1.045158061609645</v>
+        <v>1.043046642495712</v>
       </c>
       <c r="L8">
-        <v>1.04309454827238</v>
+        <v>1.041979840964452</v>
       </c>
       <c r="M8">
-        <v>1.048652622196926</v>
+        <v>1.047744720997061</v>
       </c>
       <c r="N8">
-        <v>1.017584901182439</v>
+        <v>1.017859067155844</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047077647953072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046359111155642</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02337039936568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011062326878122</v>
+        <v>1.010304028491133</v>
       </c>
       <c r="D9">
-        <v>1.026998676211519</v>
+        <v>1.025700935821658</v>
       </c>
       <c r="E9">
-        <v>1.024210837347888</v>
+        <v>1.023652240889553</v>
       </c>
       <c r="F9">
-        <v>1.030170857488954</v>
+        <v>1.029707250689881</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051158384449584</v>
+        <v>1.050476341825224</v>
       </c>
       <c r="J9">
-        <v>1.036230403807128</v>
+        <v>1.035498099346851</v>
       </c>
       <c r="K9">
-        <v>1.039668395665371</v>
+        <v>1.038390354704934</v>
       </c>
       <c r="L9">
-        <v>1.036922954126835</v>
+        <v>1.036372888196874</v>
       </c>
       <c r="M9">
-        <v>1.0427926898874</v>
+        <v>1.042336058229166</v>
       </c>
       <c r="N9">
-        <v>1.01546912008932</v>
+        <v>1.016386899398805</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042439931597002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042078539134986</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022342226088509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003992873642645</v>
+        <v>1.00376201990974</v>
       </c>
       <c r="D10">
-        <v>1.02190348012519</v>
+        <v>1.021225227651014</v>
       </c>
       <c r="E10">
-        <v>1.018689473696333</v>
+        <v>1.018567851441407</v>
       </c>
       <c r="F10">
-        <v>1.024941436869339</v>
+        <v>1.024827346292571</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048731987779974</v>
+        <v>1.048415216746202</v>
       </c>
       <c r="J10">
-        <v>1.032048962936038</v>
+        <v>1.031827168674814</v>
       </c>
       <c r="K10">
-        <v>1.035888210266065</v>
+        <v>1.035221545043896</v>
       </c>
       <c r="L10">
-        <v>1.032729288574912</v>
+        <v>1.032609759625531</v>
       </c>
       <c r="M10">
-        <v>1.0388745094809</v>
+        <v>1.038762351761024</v>
       </c>
       <c r="N10">
-        <v>1.014028484569212</v>
+        <v>1.015511952984381</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039390337700765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039301577765027</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021640941348488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001661503689271</v>
+        <v>1.001627214344941</v>
       </c>
       <c r="D11">
-        <v>1.020315977598644</v>
+        <v>1.019853377020966</v>
       </c>
       <c r="E11">
-        <v>1.017238004978467</v>
+        <v>1.017272510609371</v>
       </c>
       <c r="F11">
-        <v>1.02396045853657</v>
+        <v>1.023972939949165</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048096035260824</v>
+        <v>1.04790983983194</v>
       </c>
       <c r="J11">
-        <v>1.030965325146696</v>
+        <v>1.030932455628868</v>
       </c>
       <c r="K11">
-        <v>1.034864671664803</v>
+        <v>1.034410354576538</v>
       </c>
       <c r="L11">
-        <v>1.031841998515094</v>
+        <v>1.031875881799978</v>
       </c>
       <c r="M11">
-        <v>1.038444232831768</v>
+        <v>1.038456492940947</v>
       </c>
       <c r="N11">
-        <v>1.013766631191301</v>
+        <v>1.015575301702506</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039485524300332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039495221898813</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021524237274508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.001097007895097</v>
+        <v>1.001098805533534</v>
       </c>
       <c r="D12">
-        <v>1.019978528209182</v>
+        <v>1.019555001012882</v>
       </c>
       <c r="E12">
-        <v>1.017069104746119</v>
+        <v>1.017126188928075</v>
       </c>
       <c r="F12">
-        <v>1.024084870887602</v>
+        <v>1.024117175436164</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048029341199889</v>
+        <v>1.047867278831136</v>
       </c>
       <c r="J12">
-        <v>1.030855012831415</v>
+        <v>1.030856734628038</v>
       </c>
       <c r="K12">
-        <v>1.034732725888937</v>
+        <v>1.034316908649378</v>
       </c>
       <c r="L12">
-        <v>1.031876434626025</v>
+        <v>1.031932472523371</v>
       </c>
       <c r="M12">
-        <v>1.038764745786623</v>
+        <v>1.03879646870965</v>
       </c>
       <c r="N12">
-        <v>1.013818490279653</v>
+        <v>1.015714744369868</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040065000484493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040090084462811</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02154947274208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001856268464945</v>
+        <v>1.00175990432486</v>
       </c>
       <c r="D13">
-        <v>1.020580876244125</v>
+        <v>1.020052896821575</v>
       </c>
       <c r="E13">
-        <v>1.017877803491629</v>
+        <v>1.01784581331924</v>
       </c>
       <c r="F13">
-        <v>1.025081007717272</v>
+        <v>1.025044096615932</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048401296270037</v>
+        <v>1.048176077725336</v>
       </c>
       <c r="J13">
-        <v>1.031489940430879</v>
+        <v>1.031397618825547</v>
       </c>
       <c r="K13">
-        <v>1.035281375766896</v>
+        <v>1.034762962218524</v>
       </c>
       <c r="L13">
-        <v>1.032627413202061</v>
+        <v>1.032596006268834</v>
       </c>
       <c r="M13">
-        <v>1.039700493759906</v>
+        <v>1.039664243391722</v>
       </c>
       <c r="N13">
-        <v>1.014115912047814</v>
+        <v>1.015885626403275</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041081133230307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041052476484836</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02168455209301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002980966006022</v>
+        <v>1.0027573417499</v>
       </c>
       <c r="D14">
-        <v>1.021422976347418</v>
+        <v>1.020759134200348</v>
       </c>
       <c r="E14">
-        <v>1.018879125804675</v>
+        <v>1.018736767490961</v>
       </c>
       <c r="F14">
-        <v>1.026166120388305</v>
+        <v>1.026042369253504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048856549735266</v>
+        <v>1.048548946185184</v>
       </c>
       <c r="J14">
-        <v>1.032265734619737</v>
+        <v>1.032051351086309</v>
       </c>
       <c r="K14">
-        <v>1.035968342193826</v>
+        <v>1.035316372103306</v>
       </c>
       <c r="L14">
-        <v>1.033470094589614</v>
+        <v>1.033330297040778</v>
       </c>
       <c r="M14">
-        <v>1.040627240120964</v>
+        <v>1.04050567417903</v>
       </c>
       <c r="N14">
-        <v>1.014432441231714</v>
+        <v>1.016019737053322</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04198675371883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041890665976005</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021828225520973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003548175781823</v>
+        <v>1.003264927407284</v>
       </c>
       <c r="D15">
-        <v>1.021837599343078</v>
+        <v>1.021109778883763</v>
       </c>
       <c r="E15">
-        <v>1.019345742098666</v>
+        <v>1.019152962331836</v>
       </c>
       <c r="F15">
-        <v>1.026637825679961</v>
+        <v>1.026474106572458</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049066684868769</v>
+        <v>1.048720261135114</v>
       </c>
       <c r="J15">
-        <v>1.032623887523219</v>
+        <v>1.032352238641048</v>
       </c>
       <c r="K15">
-        <v>1.036289407472296</v>
+        <v>1.035574501879508</v>
       </c>
       <c r="L15">
-        <v>1.033841866528235</v>
+        <v>1.033652526968211</v>
       </c>
       <c r="M15">
-        <v>1.041005050023379</v>
+        <v>1.040844198892887</v>
       </c>
       <c r="N15">
-        <v>1.014565952926491</v>
+        <v>1.016064818947614</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042322850868464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042195714785838</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021889377008012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006392031443595</v>
+        <v>1.005840559649381</v>
       </c>
       <c r="D16">
-        <v>1.023874399320615</v>
+        <v>1.022853875795129</v>
       </c>
       <c r="E16">
-        <v>1.021527341739646</v>
+        <v>1.021113504151676</v>
       </c>
       <c r="F16">
-        <v>1.028689518624057</v>
+        <v>1.028349149266726</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050034770664515</v>
+        <v>1.049511253350568</v>
       </c>
       <c r="J16">
-        <v>1.034278336223792</v>
+        <v>1.033748301377954</v>
       </c>
       <c r="K16">
-        <v>1.037790118129338</v>
+        <v>1.036786899436547</v>
       </c>
       <c r="L16">
-        <v>1.03548292592169</v>
+        <v>1.035076142017989</v>
       </c>
       <c r="M16">
-        <v>1.042524185275094</v>
+        <v>1.042189513169268</v>
       </c>
       <c r="N16">
-        <v>1.015119824751161</v>
+        <v>1.01622245285901</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043484932393227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.043220401292881</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022148835278535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007986106787809</v>
+        <v>1.007305957372783</v>
       </c>
       <c r="D17">
-        <v>1.024997612016121</v>
+        <v>1.023831644356354</v>
       </c>
       <c r="E17">
-        <v>1.022678174610285</v>
+        <v>1.022160775976595</v>
       </c>
       <c r="F17">
-        <v>1.029691089867153</v>
+        <v>1.029267275720737</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050536803774792</v>
+        <v>1.049926068824551</v>
       </c>
       <c r="J17">
-        <v>1.0351408125632</v>
+        <v>1.034486244888168</v>
       </c>
       <c r="K17">
-        <v>1.038581093087837</v>
+        <v>1.037434334583134</v>
       </c>
       <c r="L17">
-        <v>1.036299923564193</v>
+        <v>1.03579109187352</v>
       </c>
       <c r="M17">
-        <v>1.043197811769708</v>
+        <v>1.042780891925176</v>
       </c>
       <c r="N17">
-        <v>1.015378732599891</v>
+        <v>1.016302603470251</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043888635446702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.04355906143779</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022273928043793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008637587559496</v>
+        <v>1.007925215068715</v>
       </c>
       <c r="D18">
-        <v>1.025422380849006</v>
+        <v>1.02421579464359</v>
       </c>
       <c r="E18">
-        <v>1.023013686357325</v>
+        <v>1.022474371926777</v>
       </c>
       <c r="F18">
-        <v>1.029822384830124</v>
+        <v>1.029379713247776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050673436919535</v>
+        <v>1.050038872833925</v>
       </c>
       <c r="J18">
-        <v>1.035378202414307</v>
+        <v>1.034692124935303</v>
       </c>
       <c r="K18">
-        <v>1.038816259811642</v>
+        <v>1.037629225561753</v>
       </c>
       <c r="L18">
-        <v>1.036446655590183</v>
+        <v>1.035916126020717</v>
       </c>
       <c r="M18">
-        <v>1.043145462274019</v>
+        <v>1.042709878709894</v>
       </c>
       <c r="N18">
-        <v>1.01539643457819</v>
+        <v>1.01627595403877</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043610153164008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.043265754091329</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02228596243141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008428522412437</v>
+        <v>1.007764187174858</v>
       </c>
       <c r="D19">
-        <v>1.025208791517529</v>
+        <v>1.024051216163495</v>
       </c>
       <c r="E19">
-        <v>1.022599312692393</v>
+        <v>1.022105999869448</v>
       </c>
       <c r="F19">
-        <v>1.029149287827235</v>
+        <v>1.028741514333664</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050477461601289</v>
+        <v>1.049872819043456</v>
       </c>
       <c r="J19">
-        <v>1.035044059774117</v>
+        <v>1.034404115900769</v>
       </c>
       <c r="K19">
-        <v>1.038543838225482</v>
+        <v>1.037404929483391</v>
       </c>
       <c r="L19">
-        <v>1.035976515560519</v>
+        <v>1.035491203280852</v>
       </c>
       <c r="M19">
-        <v>1.042421195056268</v>
+        <v>1.042019926650746</v>
       </c>
       <c r="N19">
-        <v>1.015197262061291</v>
+        <v>1.016132508335399</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04271280580103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.042395435247251</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022193702333661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005830833542209</v>
+        <v>1.005434187060407</v>
       </c>
       <c r="D20">
-        <v>1.023227431578789</v>
+        <v>1.022364993392555</v>
       </c>
       <c r="E20">
-        <v>1.020124215489054</v>
+        <v>1.019863809379939</v>
       </c>
       <c r="F20">
-        <v>1.026301618621618</v>
+        <v>1.026076845020127</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049367582854561</v>
+        <v>1.048940168215935</v>
       </c>
       <c r="J20">
-        <v>1.033138822066954</v>
+        <v>1.032757225242048</v>
       </c>
       <c r="K20">
-        <v>1.036873790986989</v>
+        <v>1.036025659829875</v>
       </c>
       <c r="L20">
-        <v>1.033822199998521</v>
+        <v>1.033566144416203</v>
       </c>
       <c r="M20">
-        <v>1.039897231793668</v>
+        <v>1.039676155322606</v>
       </c>
       <c r="N20">
-        <v>1.014404620809149</v>
+        <v>1.015662680736705</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040189176380217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.040014217723785</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02181711674831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000355158915033</v>
+        <v>1.000515606544562</v>
       </c>
       <c r="D21">
-        <v>1.019270048765117</v>
+        <v>1.019008731583029</v>
       </c>
       <c r="E21">
-        <v>1.015791630575331</v>
+        <v>1.016002117417278</v>
       </c>
       <c r="F21">
-        <v>1.022127401416233</v>
+        <v>1.022277148681219</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047436776308564</v>
+        <v>1.047373882155432</v>
       </c>
       <c r="J21">
-        <v>1.029838038581887</v>
+        <v>1.029991786267132</v>
       </c>
       <c r="K21">
-        <v>1.03389531519764</v>
+        <v>1.033638709997091</v>
       </c>
       <c r="L21">
-        <v>1.030479877117565</v>
+        <v>1.030686536943801</v>
       </c>
       <c r="M21">
-        <v>1.036701349216378</v>
+        <v>1.0368484172645</v>
       </c>
       <c r="N21">
-        <v>1.013246493472688</v>
+        <v>1.015333931900011</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037619040695174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.037735435652811</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021289008892994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9968821784353336</v>
+        <v>0.9973956989177559</v>
       </c>
       <c r="D22">
-        <v>1.016769566168737</v>
+        <v>1.01688889457692</v>
       </c>
       <c r="E22">
-        <v>1.013074437807524</v>
+        <v>1.013583453332492</v>
       </c>
       <c r="F22">
-        <v>1.019537765587449</v>
+        <v>1.019925029844452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046212240676082</v>
+        <v>1.046379449331214</v>
       </c>
       <c r="J22">
-        <v>1.027759828306992</v>
+        <v>1.028250624375006</v>
       </c>
       <c r="K22">
-        <v>1.032015977328157</v>
+        <v>1.032133043004187</v>
       </c>
       <c r="L22">
-        <v>1.028391262131547</v>
+        <v>1.028890538121306</v>
       </c>
       <c r="M22">
-        <v>1.034731863681486</v>
+        <v>1.035111839044818</v>
       </c>
       <c r="N22">
-        <v>1.012523456222272</v>
+        <v>1.015127683009452</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036060316975164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.036361043802276</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020957503462354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.998731038588406</v>
+        <v>0.9990403882291483</v>
       </c>
       <c r="D23">
-        <v>1.018100303393452</v>
+        <v>1.018003740635092</v>
       </c>
       <c r="E23">
-        <v>1.014520128477786</v>
+        <v>1.014855648456266</v>
       </c>
       <c r="F23">
-        <v>1.020915222702546</v>
+        <v>1.021164652135132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046865093796409</v>
+        <v>1.046900851434995</v>
       </c>
       <c r="J23">
-        <v>1.028866419323376</v>
+        <v>1.029162491361975</v>
       </c>
       <c r="K23">
-        <v>1.033016807900554</v>
+        <v>1.032922028344405</v>
       </c>
       <c r="L23">
-        <v>1.02950304346788</v>
+        <v>1.029832313755213</v>
       </c>
       <c r="M23">
-        <v>1.035779937808451</v>
+        <v>1.036024796125824</v>
       </c>
       <c r="N23">
-        <v>1.012908475292317</v>
+        <v>1.015192439422105</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036889802041468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.037083591933042</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021129378371859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005841700306493</v>
+        <v>1.005447924276806</v>
       </c>
       <c r="D24">
-        <v>1.023226762326409</v>
+        <v>1.022366957958485</v>
       </c>
       <c r="E24">
-        <v>1.020097747387928</v>
+        <v>1.019840506123599</v>
       </c>
       <c r="F24">
-        <v>1.026237541435435</v>
+        <v>1.02601508127772</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049354601273645</v>
+        <v>1.048928833075502</v>
       </c>
       <c r="J24">
-        <v>1.033116718473429</v>
+        <v>1.032737861722974</v>
       </c>
       <c r="K24">
-        <v>1.036857908575163</v>
+        <v>1.036012349250963</v>
       </c>
       <c r="L24">
-        <v>1.033780883012236</v>
+        <v>1.033527934161189</v>
       </c>
       <c r="M24">
-        <v>1.03981904773129</v>
+        <v>1.039600242546062</v>
       </c>
       <c r="N24">
-        <v>1.014386790522795</v>
+        <v>1.015646875829591</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040086495693089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.039913325939188</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021808542015928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013769694290825</v>
+        <v>1.01281520205256</v>
       </c>
       <c r="D25">
-        <v>1.028957267500773</v>
+        <v>1.027426313735997</v>
       </c>
       <c r="E25">
-        <v>1.02634998332337</v>
+        <v>1.025628490136467</v>
       </c>
       <c r="F25">
-        <v>1.032219515914103</v>
+        <v>1.031625787313111</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052084852343727</v>
+        <v>1.05126535663519</v>
       </c>
       <c r="J25">
-        <v>1.03784237616648</v>
+        <v>1.036918848640046</v>
       </c>
       <c r="K25">
-        <v>1.04112209509328</v>
+        <v>1.039613283936211</v>
       </c>
       <c r="L25">
-        <v>1.038552570932603</v>
+        <v>1.037841569788098</v>
       </c>
       <c r="M25">
-        <v>1.04433743808597</v>
+        <v>1.043752218303024</v>
       </c>
       <c r="N25">
-        <v>1.016029171666465</v>
+        <v>1.016741590792921</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043662491917066</v>
+        <v>1.043199331569983</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022613376335859</v>
       </c>
     </row>
   </sheetData>
